--- a/POP_GROWTH_COUNT_DATA.xlsx
+++ b/POP_GROWTH_COUNT_DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymondtremblay/Dropbox/GitHub_Dropbox_Drive/GitHub/Ecologia_de_Poblacion_Humacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66900270-CBB4-7946-B109-14E3913FC080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01B6683-462D-B647-8454-6DEC5CD30588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="500" windowWidth="28140" windowHeight="17500" xr2:uid="{622CF23C-A16E-4248-8A64-B896A35AEE49}"/>
+    <workbookView xWindow="2220" yWindow="3020" windowWidth="28140" windowHeight="17500" xr2:uid="{622CF23C-A16E-4248-8A64-B896A35AEE49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Year</t>
   </si>
@@ -114,6 +114,21 @@
   </si>
   <si>
     <t>Intercept</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>variance</t>
+  </si>
+  <si>
+    <t>CI 95%L</t>
+  </si>
+  <si>
+    <t>CI 95%U</t>
   </si>
 </sst>
 </file>
@@ -511,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450EE83E-EE46-6649-9878-5BED9F50DD99}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="243" zoomScaleNormal="243" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -978,6 +993,42 @@
       </c>
       <c r="O23">
         <v>1.2924284458955206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27">
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="I27">
+        <f>L23</f>
+        <v>-1.2313885691381086</v>
+      </c>
+      <c r="J27">
+        <f>M23</f>
+        <v>1.2924284458955206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28">
+        <f>J18</f>
+        <v>9.4981744577735299</v>
       </c>
     </row>
   </sheetData>
